--- a/utility/optbs/template/kartu_barang.xlsx
+++ b/utility/optbs/template/kartu_barang.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Lamp. 12" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>LAMPIRAN 12</t>
   </si>
@@ -91,25 +91,37 @@
     <t>[a.keterangan]</t>
   </si>
   <si>
-    <t>ATASAN LANGSUNG,</t>
-  </si>
-  <si>
     <t>Kota Pekalongan, [b.tanggal_cetak]</t>
   </si>
   <si>
-    <t>(Kasubbag. Umum / Keuangan / Sekretaris Kelurahan)</t>
-  </si>
-  <si>
-    <t>PENYIMPAN BARANG,</t>
+    <t>Mengetahui</t>
+  </si>
+  <si>
+    <t>An Pengguna / Kuasa Pengguna Barang</t>
+  </si>
+  <si>
+    <t>Pengurus Barang</t>
+  </si>
+  <si>
+    <t>Pembantu Pengurus Barang</t>
+  </si>
+  <si>
+    <t>Pejabat Penatausahaan Pengguna Barang</t>
   </si>
   <si>
     <t>([b.nama_atasan])</t>
   </si>
   <si>
+    <t>……………………………………</t>
+  </si>
+  <si>
+    <t>([b.nama_penyimpan_barang])</t>
+  </si>
+  <si>
     <t>NIP. [b.nip_atasan]</t>
   </si>
   <si>
-    <t>([b.nama_penyimpan_barang])</t>
+    <t>NIP ………………………………</t>
   </si>
   <si>
     <t>NIP. [b.nip_penyimpan_barang]</t>
@@ -122,7 +134,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -184,20 +196,15 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial Narrow"/>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -251,12 +258,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -276,10 +283,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -293,18 +296,38 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -328,16 +351,16 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.73913043478261"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.3664596273292"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="1" width="22.6770186335404"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="25.3105590062112"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="9.20496894409938"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.6770186335404"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="1" width="23.9937888198758"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="36.6459627329192"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="9.53416149068323"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -349,26 +372,6 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="0"/>
-      <c r="H1" s="0"/>
-      <c r="I1" s="0"/>
-      <c r="J1" s="0"/>
-      <c r="K1" s="0"/>
-      <c r="L1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0"/>
-      <c r="B2" s="0"/>
-      <c r="C2" s="0"/>
-      <c r="D2" s="0"/>
-      <c r="E2" s="0"/>
-      <c r="F2" s="0"/>
-      <c r="G2" s="0"/>
-      <c r="H2" s="0"/>
-      <c r="I2" s="0"/>
-      <c r="J2" s="0"/>
-      <c r="K2" s="0"/>
-      <c r="L2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
@@ -382,11 +385,6 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="0"/>
-      <c r="I3" s="0"/>
-      <c r="J3" s="0"/>
-      <c r="K3" s="0"/>
-      <c r="L3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
@@ -400,11 +398,6 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="0"/>
-      <c r="I4" s="0"/>
-      <c r="J4" s="0"/>
-      <c r="K4" s="0"/>
-      <c r="L4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
@@ -418,25 +411,6 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="0"/>
-      <c r="I5" s="0"/>
-      <c r="J5" s="0"/>
-      <c r="K5" s="0"/>
-      <c r="L5" s="0"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0"/>
-      <c r="B6" s="0"/>
-      <c r="C6" s="0"/>
-      <c r="D6" s="0"/>
-      <c r="E6" s="0"/>
-      <c r="F6" s="0"/>
-      <c r="G6" s="0"/>
-      <c r="H6" s="0"/>
-      <c r="I6" s="0"/>
-      <c r="J6" s="0"/>
-      <c r="K6" s="0"/>
-      <c r="L6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
@@ -447,290 +421,183 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="0"/>
-      <c r="H7" s="0"/>
-      <c r="I7" s="0"/>
-      <c r="J7" s="0"/>
-      <c r="K7" s="0"/>
-      <c r="L7" s="0"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0"/>
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
-      <c r="J8" s="0"/>
-      <c r="K8" s="0"/>
-      <c r="L8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="0"/>
-      <c r="C9" s="0"/>
-      <c r="D9" s="0"/>
-      <c r="E9" s="0"/>
-      <c r="F9" s="0"/>
-      <c r="G9" s="0"/>
-      <c r="H9" s="0"/>
-      <c r="I9" s="0"/>
-      <c r="J9" s="0"/>
-      <c r="K9" s="0"/>
-      <c r="L9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="0"/>
-      <c r="C10" s="0"/>
-      <c r="D10" s="6" t="s">
+      <c r="F10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="0"/>
-      <c r="F10" s="0"/>
-      <c r="G10" s="0"/>
-      <c r="H10" s="0"/>
-      <c r="I10" s="0"/>
-      <c r="J10" s="0"/>
-      <c r="K10" s="0"/>
-      <c r="L10" s="0"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0"/>
-      <c r="B11" s="0"/>
-      <c r="C11" s="0"/>
-      <c r="D11" s="0"/>
-      <c r="E11" s="0"/>
-      <c r="F11" s="0"/>
-      <c r="G11" s="0"/>
-      <c r="H11" s="0"/>
-      <c r="I11" s="0"/>
-      <c r="J11" s="0"/>
-      <c r="K11" s="0"/>
-      <c r="L11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="0"/>
-      <c r="H12" s="0"/>
-      <c r="I12" s="0"/>
-      <c r="J12" s="0"/>
-      <c r="K12" s="0"/>
-      <c r="L12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="n">
+      <c r="A13" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="B13" s="8" t="n">
+      <c r="B13" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="C13" s="8" t="n">
+      <c r="C13" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="D13" s="8" t="n">
+      <c r="D13" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="E13" s="8" t="n">
+      <c r="E13" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="F13" s="8" t="n">
+      <c r="F13" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="G13" s="0"/>
-      <c r="H13" s="0"/>
-      <c r="I13" s="0"/>
-      <c r="J13" s="0"/>
-      <c r="K13" s="0"/>
-      <c r="L13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="0"/>
-      <c r="H14" s="0"/>
-      <c r="I14" s="0"/>
-      <c r="J14" s="0"/>
-      <c r="K14" s="0"/>
-      <c r="L14" s="0"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0"/>
-      <c r="B15" s="0"/>
-      <c r="C15" s="0"/>
-      <c r="D15" s="0"/>
-      <c r="E15" s="0"/>
-      <c r="F15" s="0"/>
-      <c r="G15" s="0"/>
-      <c r="H15" s="0"/>
-      <c r="I15" s="0"/>
-      <c r="J15" s="0"/>
-      <c r="K15" s="0"/>
-      <c r="L15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0"/>
-      <c r="B16" s="0"/>
-      <c r="C16" s="0"/>
-      <c r="D16" s="0"/>
-      <c r="E16" s="0"/>
-      <c r="F16" s="0"/>
-      <c r="G16" s="0"/>
-      <c r="H16" s="0"/>
-      <c r="I16" s="0"/>
-      <c r="J16" s="0"/>
-      <c r="K16" s="0"/>
-      <c r="L16" s="0"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0"/>
-      <c r="B17" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="0"/>
-      <c r="D17" s="0"/>
-      <c r="E17" s="10" t="s">
+      <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="0"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="0"/>
-      <c r="E18" s="10" t="s">
+      <c r="D18" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="10"/>
+      <c r="F18" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="0"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0"/>
-      <c r="C19" s="0"/>
-      <c r="D19" s="0"/>
-      <c r="E19" s="10"/>
-      <c r="J19" s="0"/>
+      <c r="A19" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="D19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0"/>
-      <c r="C20" s="0"/>
-      <c r="D20" s="0"/>
-      <c r="J20" s="0"/>
+      <c r="A20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0"/>
-      <c r="C21" s="0"/>
-      <c r="D21" s="0"/>
-      <c r="J21" s="0"/>
+      <c r="A21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0"/>
-      <c r="C22" s="0"/>
-      <c r="D22" s="0"/>
-      <c r="J22" s="0"/>
+      <c r="A22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0"/>
-      <c r="B23" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="0"/>
-      <c r="D23" s="0"/>
-      <c r="F23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="0"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
+      <c r="A23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0"/>
-      <c r="B24" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="0"/>
-      <c r="D24" s="0"/>
-      <c r="E24" s="10" t="s">
+      <c r="A24" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="0"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="10" t="s">
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
+      <c r="F24" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="13"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="15"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:G3"/>
@@ -739,7 +606,6 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A18:C18"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.590277777777778" right="0.590277777777778" top="0.7875" bottom="1.77152777777778" header="0.511805555555555" footer="0.511805555555555"/>
